--- a/苹果配置.xlsx
+++ b/苹果配置.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="语言代码" sheetId="1" r:id="rId1"/>
     <sheet name="国家代码" sheetId="2" r:id="rId2"/>
+    <sheet name="软件类别代码" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="607">
   <si>
     <t>语言名称</t>
   </si>
@@ -1843,9 +1844,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1876,15 +1877,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1906,21 +1913,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1928,15 +1921,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1947,45 +1939,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2006,6 +1959,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2021,31 +2022,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,19 +2082,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2081,13 +2112,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,7 +2142,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2117,91 +2190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2217,35 +2218,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2265,17 +2240,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2295,20 +2284,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2320,10 +2321,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2332,133 +2333,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2793,7 +2794,7 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5086,4 +5087,336 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/苹果配置.xlsx
+++ b/苹果配置.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="语言代码" sheetId="1" r:id="rId1"/>
     <sheet name="国家代码" sheetId="2" r:id="rId2"/>
     <sheet name="软件类别代码" sheetId="3" r:id="rId3"/>
+    <sheet name="年龄分级" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="643">
   <si>
     <t>语言名称</t>
   </si>
@@ -1837,6 +1838,138 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>语言类型</t>
+  </si>
+  <si>
+    <t>语言代码</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APPLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内容描述</t>
+    </r>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>偶尔/轻微的</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>频繁/强烈的</t>
+  </si>
+  <si>
+    <t>卡通或幻想暴力</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>9+</t>
+  </si>
+  <si>
+    <t>12+</t>
+  </si>
+  <si>
+    <t>现实暴力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17+
+</t>
+  </si>
+  <si>
+    <t>鉴于当地法律的规定，此 App 将不在以下国家或地区销售：
+若您的 App 符合某些条件，则您需要提供韩国游戏评级和管理委员会提供的分级类别号码，才能在韩国 App Store 中发布此 App。请在“App 信息”页面输入此号码。</t>
+  </si>
+  <si>
+    <t>大量露骨或残暴的现实暴力</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>低俗笑话</t>
+  </si>
+  <si>
+    <t>成人/性暗示题材</t>
+  </si>
+  <si>
+    <t>17+</t>
+  </si>
+  <si>
+    <t>恐怖/惊悚题材</t>
+  </si>
+  <si>
+    <t>医学/医疗信息</t>
+  </si>
+  <si>
+    <t>使用或提及烟、酒或毒品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12+
+</t>
+  </si>
+  <si>
+    <t>鉴于当地法律的规定，此 App 将不在以下国家或地区销售：
+阿富汗：如果主要类别或次要类别是“娱乐”、“生活方式”或“游戏”。</t>
+  </si>
+  <si>
+    <t>鉴于当地法律的规定，此 App 将不在以下国家或地区销售：
+巴西：如果主要类别或次要类别是“游戏”。
+阿富汗、阿拉伯联合酋长国、利比亚、马尔代夫、摩洛哥、沙特阿拉伯或伊拉克：如果主要类别或次要类别是“娱乐”、“生活方式”或“游戏”。</t>
+  </si>
+  <si>
+    <t>模拟赌博</t>
+  </si>
+  <si>
+    <t>若您的 App 符合某些条件，
+则您需要提供韩国游戏评级和管理委员会提供的分级类别号码，才能在韩国 App Store 中发布此 App。请在“App 信息”页面输入此号码。</t>
+  </si>
+  <si>
+    <t>色情或裸露内容</t>
+  </si>
+  <si>
+    <t>鉴于当地法律的规定，此 App 将不在以下国家或地区销售：
+阿富汗：如果主要类别或次要类别是
+“娱乐”、“生活方式”或“游戏”。</t>
+  </si>
+  <si>
+    <t>鉴于当地法律的规定，此 App 将不在以下国家或地区销售：
+阿富汗、阿拉伯联合酋长国、利比亚、马尔代夫、摩洛哥、沙特阿拉伯或伊拉克：如果主要类别或次要类别是“娱乐”、“生活方式”或“游戏”。
+若您的 App 符合某些条件，则您需要提供韩国游戏评级和管理委员会提供的分级类别号码，才能在韩国 App Store 中发布此 App。请在“App 信息”页面输入此号码。</t>
+  </si>
+  <si>
+    <t>色情及裸体画面</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>无限制的网站访问</t>
+  </si>
+  <si>
+    <t>赌博和竞赛</t>
+  </si>
+  <si>
+    <t>鉴于当地法律的规定，此 App 将不在以下国家或地区销售：
+阿富汗、阿拉伯联合酋长国、巴西、韩国、加蓬、利比亚、马尔代夫、摩洛哥、沙特阿拉伯或伊拉克。</t>
   </si>
 </sst>
 </file>
@@ -1844,13 +1977,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="29">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1864,13 +2019,78 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1884,14 +2104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1912,8 +2125,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1921,7 +2135,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,14 +2160,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1958,32 +2179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1996,22 +2194,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2022,139 +2204,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,7 +2234,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,7 +2306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,13 +2330,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,15 +2395,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2242,11 +2415,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2270,21 +2482,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2298,21 +2495,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2321,10 +2503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2333,144 +2515,192 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2532,6 +2762,1496 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="361950"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Host Control  2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="361950"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Host Control  3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="361950"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Host Control  4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1362075"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Host Control  5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1362075"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Host Control  6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1362075"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Host Control  7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1533525"/>
+              <a:ext cx="0" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Host Control  8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1533525"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Host Control  9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1533525"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Host Control  10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1704975"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Host Control  11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1704975"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Host Control  12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1704975"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Host Control  13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1876425"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Host Control  14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1876425"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Host Control  15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1876425"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Host Control  16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2047875"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Host Control  17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2047875"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Host Control  18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2047875"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Host Control  19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2219325"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Host Control  20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2219325"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Host Control  21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2219325"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Host Control  22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3667125"/>
+              <a:ext cx="0" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Host Control  23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3667125"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Host Control  24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3667125"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Host Control  25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4524375"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Host Control  26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4524375"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Host Control  27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4524375"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Host Control  28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="6467475"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Host Control  29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="6467475"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Host Control  30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="6467475"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Host Control  31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="6638925"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Host Control  32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="6810375"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Host Control  33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="6981825"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2795,7 +4515,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2806,10 +4526,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2822,7 +4542,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2966,7 +4686,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
@@ -2974,7 +4694,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
@@ -2990,7 +4710,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
@@ -2998,7 +4718,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
@@ -3006,7 +4726,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
@@ -3014,7 +4734,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
@@ -3022,7 +4742,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
@@ -3030,7 +4750,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
@@ -3038,7 +4758,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
@@ -3046,7 +4766,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
@@ -3054,7 +4774,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
@@ -3062,7 +4782,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
@@ -3070,7 +4790,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
@@ -3078,7 +4798,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
@@ -3086,7 +4806,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
@@ -3094,7 +4814,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
@@ -3102,7 +4822,7 @@
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
@@ -3110,7 +4830,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
@@ -3118,7 +4838,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
@@ -3137,7 +4857,7 @@
   <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3148,13 +4868,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5092,326 +6812,335 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="A1" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5419,4 +7148,1097 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" ht="78.75" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" ht="114" customHeight="1" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" ht="153" customHeight="1" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" ht="78" customHeight="1" spans="1:5">
+      <c r="A15" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId4">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId5">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId6">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId7">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId8">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId9">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId10">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId11">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId12">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId13">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId14">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId15">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId16">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId17">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId18">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId19">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId20">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId21">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId22">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId23">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId24">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId25">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId26">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId27">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId28">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId29">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId30">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId31">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId32">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId33">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId34">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId35">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>